--- a/biology/Botanique/Diceratosteleae/Diceratosteleae.xlsx
+++ b/biology/Botanique/Diceratosteleae/Diceratosteleae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La tribu des Diceratosteleae est une tribu de la sous-famille des Epidendroideae, famille des Orchidaceae selon la classification de Dressler datant de 1993[1].
-Cette tribu, constituée uniquement de la seule espèce du genre Diceratostele selon World Checklist of Selected Plant Families (WCSP)  (02 fév. 2011)[2] a une  répartition géographique qui est limitée à l'ouest de l'Afrique équatoriale. Depuis 1995, certains auteurs en botanique classent ce genre dans la tribu des Triphoreae et considèrent qu'il s'agit de la sous tribu des Diceratostelinae.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La tribu des Diceratosteleae est une tribu de la sous-famille des Epidendroideae, famille des Orchidaceae selon la classification de Dressler datant de 1993.
+Cette tribu, constituée uniquement de la seule espèce du genre Diceratostele selon World Checklist of Selected Plant Families (WCSP)  (02 fév. 2011) a une  répartition géographique qui est limitée à l'ouest de l'Afrique équatoriale. Depuis 1995, certains auteurs en botanique classent ce genre dans la tribu des Triphoreae et considèrent qu'il s'agit de la sous tribu des Diceratostelinae.
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (29 Jan 2011)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (29 Jan 2011) :
 genre Diceratostele (Tribu Triphoreae selon Szlach.)
-Selon GRIN            (29 Jan 2011)[4] :
+Selon GRIN            (29 Jan 2011) :
 genre Diceratostele Summerh. 1938.</t>
         </is>
       </c>
